--- a/excel_files/settings.xlsx
+++ b/excel_files/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tord\projects\macro\code\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCC0C99-90D5-4C33-8F6B-117F18E01A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9564DF2-5D2C-44D4-A1D1-E9DB627E636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8520" yWindow="-17560" windowWidth="18050" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>F</t>
   </si>
@@ -115,15 +115,6 @@
     <t>CCON, CWSR, COFF</t>
   </si>
   <si>
-    <t>Year of analysis:</t>
-  </si>
-  <si>
-    <t>History mode</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
     <t>C_TWAS, C_TWAI, C_TAIR, CHEA, Waste</t>
   </si>
   <si>
@@ -131,6 +122,9 @@
   </si>
   <si>
     <t>R, S</t>
+  </si>
+  <si>
+    <t>YoA</t>
   </si>
 </sst>
 </file>
@@ -525,7 +519,7 @@
   <dimension ref="C1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -544,11 +538,9 @@
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.2">
@@ -558,9 +550,7 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2">
         <v>2017</v>
       </c>
@@ -651,16 +641,16 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1"/>
     </row>

--- a/excel_files/settings.xlsx
+++ b/excel_files/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tord\projects\macro\code\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9564DF2-5D2C-44D4-A1D1-E9DB627E636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA4196-58C2-4D4D-8A03-37A0BE9267FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8520" yWindow="-17560" windowWidth="18050" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>F</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>R, S</t>
-  </si>
-  <si>
-    <t>YoA</t>
   </si>
 </sst>
 </file>
@@ -516,153 +513,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35AC71C-FF4D-4CBE-A0F0-BAEE65C6C060}">
-  <dimension ref="C1:F24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" customWidth="1"/>
     <col min="4" max="4" width="34.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:6" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
     </row>
